--- a/match.xlsx
+++ b/match.xlsx
@@ -16,9 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Prabhu</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Sendil</t>
+  </si>
+  <si>
+    <t>Thamim</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Ranjit</t>
+  </si>
+  <si>
+    <t>vadivel</t>
+  </si>
+  <si>
+    <t>Ganapathi</t>
+  </si>
+  <si>
+    <t>prabha</t>
+  </si>
+  <si>
+    <t>Abi</t>
+  </si>
+  <si>
+    <t>Venu</t>
+  </si>
+  <si>
+    <t>Total pts</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>19(1,0)</t>
+  </si>
+  <si>
+    <t>25(1,0)</t>
+  </si>
+  <si>
+    <t>25(6)</t>
+  </si>
+  <si>
+    <t>19(8)</t>
+  </si>
+  <si>
+    <t>20(8)</t>
+  </si>
+  <si>
+    <t>25(7)</t>
+  </si>
+  <si>
+    <t>2(7)</t>
+  </si>
+  <si>
+    <t>2(0,1)</t>
+  </si>
+  <si>
+    <t>4(0,1)</t>
+  </si>
+  <si>
+    <t>4(6)</t>
+  </si>
+  <si>
+    <t>(win,los)</t>
   </si>
 </sst>
 </file>
@@ -42,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +119,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,18 +442,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
